--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.009842</v>
+        <v>4.521825</v>
       </c>
       <c r="H2">
-        <v>6.019684</v>
+        <v>9.04365</v>
       </c>
       <c r="I2">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J2">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.445194666666667</v>
+        <v>0.1156085</v>
       </c>
       <c r="N2">
-        <v>7.335584</v>
+        <v>0.231217</v>
       </c>
       <c r="O2">
-        <v>0.8389131387469019</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P2">
-        <v>0.872970787141563</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q2">
-        <v>7.359649605909333</v>
+        <v>0.5227614055124999</v>
       </c>
       <c r="R2">
-        <v>44.157897635456</v>
+        <v>2.09104562205</v>
       </c>
       <c r="S2">
-        <v>0.07219854475007052</v>
+        <v>0.001829041923102673</v>
       </c>
       <c r="T2">
-        <v>0.05402899525282227</v>
+        <v>0.0008789679894515876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.009842</v>
+        <v>4.521825</v>
       </c>
       <c r="H3">
-        <v>6.019684</v>
+        <v>9.04365</v>
       </c>
       <c r="I3">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J3">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.34114</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N3">
-        <v>0.68228</v>
+        <v>7.335584</v>
       </c>
       <c r="O3">
-        <v>0.117040508902407</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P3">
-        <v>0.08119469542587825</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q3">
-        <v>1.02677749988</v>
+        <v>11.0567423736</v>
       </c>
       <c r="R3">
-        <v>4.10710999952</v>
+        <v>66.3404542416</v>
       </c>
       <c r="S3">
-        <v>0.01007274058454203</v>
+        <v>0.03868542153457921</v>
       </c>
       <c r="T3">
-        <v>0.005025217198943613</v>
+        <v>0.02788611356402529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.009842</v>
+        <v>4.521825</v>
       </c>
       <c r="H4">
-        <v>6.019684</v>
+        <v>9.04365</v>
       </c>
       <c r="I4">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J4">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05058633333333334</v>
+        <v>0.055189</v>
       </c>
       <c r="N4">
-        <v>0.151759</v>
+        <v>0.165567</v>
       </c>
       <c r="O4">
-        <v>0.0173554851288038</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P4">
-        <v>0.01806007179330459</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q4">
-        <v>0.1522568706926667</v>
+        <v>0.249554999925</v>
       </c>
       <c r="R4">
-        <v>0.913541224156</v>
+        <v>1.49732999955</v>
       </c>
       <c r="S4">
-        <v>0.001493647806735763</v>
+        <v>0.0008731450948166737</v>
       </c>
       <c r="T4">
-        <v>0.001117755081336817</v>
+        <v>0.0006294004900570935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.009842</v>
+        <v>4.521825</v>
       </c>
       <c r="H5">
-        <v>6.019684</v>
+        <v>9.04365</v>
       </c>
       <c r="I5">
-        <v>0.08606200262629651</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J5">
-        <v>0.06189095448397954</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.07779633333333333</v>
+        <v>0.317703</v>
       </c>
       <c r="N5">
-        <v>0.233389</v>
+        <v>0.635406</v>
       </c>
       <c r="O5">
-        <v>0.02669086722188727</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P5">
-        <v>0.02777444563925411</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q5">
-        <v>0.2341546715126666</v>
+        <v>1.436597367975</v>
       </c>
       <c r="R5">
-        <v>1.404928029076</v>
+        <v>5.7463894719</v>
       </c>
       <c r="S5">
-        <v>0.002297069484948193</v>
+        <v>0.005026378735953573</v>
       </c>
       <c r="T5">
-        <v>0.00171898695087684</v>
+        <v>0.002415486466416723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.651458</v>
+        <v>4.521825</v>
       </c>
       <c r="H6">
-        <v>4.954374</v>
+        <v>9.04365</v>
       </c>
       <c r="I6">
-        <v>0.04722101118039366</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J6">
-        <v>0.0509380452081225</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.445194666666667</v>
+        <v>0.311266</v>
       </c>
       <c r="N6">
-        <v>7.335584</v>
+        <v>0.933798</v>
       </c>
       <c r="O6">
-        <v>0.8389131387469019</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P6">
-        <v>0.872970787141563</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q6">
-        <v>4.038136293824</v>
+        <v>1.40749038045</v>
       </c>
       <c r="R6">
-        <v>36.34322664441601</v>
+        <v>8.4449422827</v>
       </c>
       <c r="S6">
-        <v>0.03961432670414659</v>
+        <v>0.004924538967605987</v>
       </c>
       <c r="T6">
-        <v>0.04446742542078722</v>
+        <v>0.003549819220100225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.651458</v>
+        <v>4.521825</v>
       </c>
       <c r="H7">
-        <v>4.954374</v>
+        <v>9.04365</v>
       </c>
       <c r="I7">
-        <v>0.04722101118039366</v>
+        <v>0.05175904312666389</v>
       </c>
       <c r="J7">
-        <v>0.0509380452081225</v>
+        <v>0.03566291435357289</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.34114</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N7">
-        <v>0.68228</v>
+        <v>0.079739</v>
       </c>
       <c r="O7">
-        <v>0.117040508902407</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P7">
-        <v>0.08119469542587825</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q7">
-        <v>0.56337838212</v>
+        <v>0.120188601225</v>
       </c>
       <c r="R7">
-        <v>3.38027029272</v>
+        <v>0.72113160735</v>
       </c>
       <c r="S7">
-        <v>0.005526771179439525</v>
+        <v>0.0004205168706057775</v>
       </c>
       <c r="T7">
-        <v>0.004135899066263124</v>
+        <v>0.0003031266235219735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>4.954374</v>
       </c>
       <c r="I8">
-        <v>0.04722101118039366</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J8">
-        <v>0.0509380452081225</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.05058633333333334</v>
+        <v>0.1156085</v>
       </c>
       <c r="N8">
-        <v>0.151759</v>
+        <v>0.231217</v>
       </c>
       <c r="O8">
-        <v>0.0173554851288038</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P8">
-        <v>0.01806007179330459</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q8">
-        <v>0.08354120487400001</v>
+        <v>0.190922582193</v>
       </c>
       <c r="R8">
-        <v>0.7518708438660001</v>
+        <v>1.145535493158</v>
       </c>
       <c r="S8">
-        <v>0.0008195435573084002</v>
+        <v>0.0006680015074097947</v>
       </c>
       <c r="T8">
-        <v>0.0009199447534692873</v>
+        <v>0.0004815241803664694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,55 +983,55 @@
         <v>4.954374</v>
       </c>
       <c r="I9">
-        <v>0.04722101118039366</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J9">
-        <v>0.0509380452081225</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07779633333333333</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N9">
-        <v>0.233389</v>
+        <v>7.335584</v>
       </c>
       <c r="O9">
-        <v>0.02669086722188727</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P9">
-        <v>0.02777444563925411</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q9">
-        <v>0.128477377054</v>
+        <v>4.038136293824</v>
       </c>
       <c r="R9">
-        <v>1.156296393486</v>
+        <v>36.34322664441601</v>
       </c>
       <c r="S9">
-        <v>0.001260369739499141</v>
+        <v>0.01412866461586928</v>
       </c>
       <c r="T9">
-        <v>0.001414775967602867</v>
+        <v>0.01527682252217349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.93131633333333</v>
+        <v>1.651458</v>
       </c>
       <c r="H10">
-        <v>38.793949</v>
+        <v>4.954374</v>
       </c>
       <c r="I10">
-        <v>0.3697519604819138</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J10">
-        <v>0.3988572376577947</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.445194666666667</v>
+        <v>0.055189</v>
       </c>
       <c r="N10">
-        <v>7.335584</v>
+        <v>0.165567</v>
       </c>
       <c r="O10">
-        <v>0.8389131387469019</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P10">
-        <v>0.872970787141563</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q10">
-        <v>31.61958573124623</v>
+        <v>0.091142315562</v>
       </c>
       <c r="R10">
-        <v>284.576271581216</v>
+        <v>0.8202808400580001</v>
       </c>
       <c r="S10">
-        <v>0.3101897777257028</v>
+        <v>0.0003188894864342947</v>
       </c>
       <c r="T10">
-        <v>0.3481907167152345</v>
+        <v>0.0003448038594512308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.93131633333333</v>
+        <v>1.651458</v>
       </c>
       <c r="H11">
-        <v>38.793949</v>
+        <v>4.954374</v>
       </c>
       <c r="I11">
-        <v>0.3697519604819138</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J11">
-        <v>0.3988572376577947</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.34114</v>
+        <v>0.317703</v>
       </c>
       <c r="N11">
-        <v>0.68228</v>
+        <v>0.635406</v>
       </c>
       <c r="O11">
-        <v>0.117040508902407</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P11">
-        <v>0.08119469542587825</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q11">
-        <v>4.411389253953334</v>
+        <v>0.5246731609740001</v>
       </c>
       <c r="R11">
-        <v>26.46833552372</v>
+        <v>3.148038965844</v>
       </c>
       <c r="S11">
-        <v>0.04327595762246587</v>
+        <v>0.001835730788900592</v>
       </c>
       <c r="T11">
-        <v>0.03238509193003177</v>
+        <v>0.001323273605962956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.93131633333333</v>
+        <v>1.651458</v>
       </c>
       <c r="H12">
-        <v>38.793949</v>
+        <v>4.954374</v>
       </c>
       <c r="I12">
-        <v>0.3697519604819138</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J12">
-        <v>0.3988572376577947</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05058633333333334</v>
+        <v>0.311266</v>
       </c>
       <c r="N12">
-        <v>0.151759</v>
+        <v>0.933798</v>
       </c>
       <c r="O12">
-        <v>0.0173554851288038</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P12">
-        <v>0.01806007179330459</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q12">
-        <v>0.6541478784767779</v>
+        <v>0.514042725828</v>
       </c>
       <c r="R12">
-        <v>5.887330906291001</v>
+        <v>4.626384532452001</v>
       </c>
       <c r="S12">
-        <v>0.006417224651489906</v>
+        <v>0.001798536934614818</v>
       </c>
       <c r="T12">
-        <v>0.007203390347378924</v>
+        <v>0.001944694017212611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.93131633333333</v>
+        <v>1.651458</v>
       </c>
       <c r="H13">
-        <v>38.793949</v>
+        <v>4.954374</v>
       </c>
       <c r="I13">
-        <v>0.3697519604819138</v>
+        <v>0.01890340423255524</v>
       </c>
       <c r="J13">
-        <v>0.3988572376577947</v>
+        <v>0.019537179749058</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07779633333333333</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N13">
-        <v>0.233389</v>
+        <v>0.079739</v>
       </c>
       <c r="O13">
-        <v>0.02669086722188727</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P13">
-        <v>0.02777444563925411</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q13">
-        <v>1.006008995906778</v>
+        <v>0.04389520315400001</v>
       </c>
       <c r="R13">
-        <v>9.054080963161001</v>
+        <v>0.395056828386</v>
       </c>
       <c r="S13">
-        <v>0.00986900048225527</v>
+        <v>0.0001535808993264614</v>
       </c>
       <c r="T13">
-        <v>0.01107803866514948</v>
+        <v>0.0001660615638912446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.646261</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H14">
-        <v>9.292522</v>
+        <v>42.145147</v>
       </c>
       <c r="I14">
-        <v>0.1328529957334834</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J14">
-        <v>0.09554040646375765</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.445194666666667</v>
+        <v>0.1156085</v>
       </c>
       <c r="N14">
-        <v>7.335584</v>
+        <v>0.231217</v>
       </c>
       <c r="O14">
-        <v>0.8389131387469019</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P14">
-        <v>0.872970787141563</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q14">
-        <v>11.36101261714133</v>
+        <v>1.624112408983167</v>
       </c>
       <c r="R14">
-        <v>68.166075702848</v>
+        <v>9.744674453899</v>
       </c>
       <c r="S14">
-        <v>0.1114521236427053</v>
+        <v>0.005682457910122931</v>
       </c>
       <c r="T14">
-        <v>0.08340398383449138</v>
+        <v>0.004096159750071222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.646261</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H15">
-        <v>9.292522</v>
+        <v>42.145147</v>
       </c>
       <c r="I15">
-        <v>0.1328529957334834</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J15">
-        <v>0.09554040646375765</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.34114</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N15">
-        <v>0.68228</v>
+        <v>7.335584</v>
       </c>
       <c r="O15">
-        <v>0.117040508902407</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P15">
-        <v>0.08119469542587825</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q15">
-        <v>1.58502547754</v>
+        <v>34.35102955676089</v>
       </c>
       <c r="R15">
-        <v>6.34010191016</v>
+        <v>309.159266010848</v>
       </c>
       <c r="S15">
-        <v>0.0155491822298562</v>
+        <v>0.1201876659189454</v>
       </c>
       <c r="T15">
-        <v>0.007757374203689412</v>
+        <v>0.1299546483349687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.646261</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H16">
-        <v>9.292522</v>
+        <v>42.145147</v>
       </c>
       <c r="I16">
-        <v>0.1328529957334834</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J16">
-        <v>0.09554040646375765</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,105 +1429,105 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05058633333333334</v>
+        <v>0.055189</v>
       </c>
       <c r="N16">
-        <v>0.151759</v>
+        <v>0.165567</v>
       </c>
       <c r="O16">
-        <v>0.0173554851288038</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P16">
-        <v>0.01806007179330459</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q16">
-        <v>0.2350373076996667</v>
+        <v>0.7753161725943333</v>
       </c>
       <c r="R16">
-        <v>1.410223846198</v>
+        <v>6.977845553349</v>
       </c>
       <c r="S16">
-        <v>0.002305728191769506</v>
+        <v>0.002712682628022804</v>
       </c>
       <c r="T16">
-        <v>0.001725466599896965</v>
+        <v>0.002933127241249744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.646261</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H17">
-        <v>9.292522</v>
+        <v>42.145147</v>
       </c>
       <c r="I17">
-        <v>0.1328529957334834</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J17">
-        <v>0.09554040646375765</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.07779633333333333</v>
+        <v>0.317703</v>
       </c>
       <c r="N17">
-        <v>0.233389</v>
+        <v>0.635406</v>
       </c>
       <c r="O17">
-        <v>0.02669086722188727</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P17">
-        <v>0.02777444563925411</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q17">
-        <v>0.3614620695096666</v>
+        <v>4.463213212447</v>
       </c>
       <c r="R17">
-        <v>2.168772417058</v>
+        <v>26.779279274682</v>
       </c>
       <c r="S17">
-        <v>0.003545961669152361</v>
+        <v>0.0156159272494651</v>
       </c>
       <c r="T17">
-        <v>0.002653581825679879</v>
+        <v>0.01125663113937883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.567446666666666</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H18">
-        <v>4.70234</v>
+        <v>42.145147</v>
       </c>
       <c r="I18">
-        <v>0.04481883073704412</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J18">
-        <v>0.0483467754965537</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.445194666666667</v>
+        <v>0.311266</v>
       </c>
       <c r="N18">
-        <v>7.335584</v>
+        <v>0.933798</v>
       </c>
       <c r="O18">
-        <v>0.8389131387469019</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P18">
-        <v>0.872970787141563</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q18">
-        <v>3.832712229617777</v>
+        <v>4.372783775367333</v>
       </c>
       <c r="R18">
-        <v>34.49441006655999</v>
+        <v>39.355053978306</v>
       </c>
       <c r="S18">
-        <v>0.03759910596857981</v>
+        <v>0.01529953198815247</v>
       </c>
       <c r="T18">
-        <v>0.04220532266098291</v>
+        <v>0.01654283976652671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.567446666666666</v>
+        <v>14.04838233333333</v>
       </c>
       <c r="H19">
-        <v>4.70234</v>
+        <v>42.145147</v>
       </c>
       <c r="I19">
-        <v>0.04481883073704412</v>
+        <v>0.1608047253157438</v>
       </c>
       <c r="J19">
-        <v>0.0483467754965537</v>
+        <v>0.166196034552392</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.34114</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N19">
-        <v>0.68228</v>
+        <v>0.079739</v>
       </c>
       <c r="O19">
-        <v>0.117040508902407</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P19">
-        <v>0.08119469542587825</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q19">
-        <v>0.5347187558666666</v>
+        <v>0.373401319625889</v>
       </c>
       <c r="R19">
-        <v>3.2083125352</v>
+        <v>3.360611876633</v>
       </c>
       <c r="S19">
-        <v>0.005245618757874485</v>
+        <v>0.001306459621035052</v>
       </c>
       <c r="T19">
-        <v>0.003925501711265991</v>
+        <v>0.001412628320196738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.567446666666666</v>
+        <v>3.9801995</v>
       </c>
       <c r="H20">
-        <v>4.70234</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I20">
-        <v>0.04481883073704412</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J20">
-        <v>0.0483467754965537</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.05058633333333334</v>
+        <v>0.1156085</v>
       </c>
       <c r="N20">
-        <v>0.151759</v>
+        <v>0.231217</v>
       </c>
       <c r="O20">
-        <v>0.0173554851288038</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P20">
-        <v>0.01806007179330459</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q20">
-        <v>0.07929137956222222</v>
+        <v>0.46014489389575</v>
       </c>
       <c r="R20">
-        <v>0.71362241606</v>
+        <v>1.840579575583</v>
       </c>
       <c r="S20">
-        <v>0.000777852550347144</v>
+        <v>0.00160995875510713</v>
       </c>
       <c r="T20">
-        <v>0.000873146236442539</v>
+        <v>0.0007736849506850033</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.567446666666666</v>
+        <v>3.9801995</v>
       </c>
       <c r="H21">
-        <v>4.70234</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I21">
-        <v>0.04481883073704412</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J21">
-        <v>0.0483467754965537</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.07779633333333333</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N21">
-        <v>0.233389</v>
+        <v>7.335584</v>
       </c>
       <c r="O21">
-        <v>0.02669086722188727</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P21">
-        <v>0.02777444563925411</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q21">
-        <v>0.1219416033622222</v>
+        <v>9.732362589669334</v>
       </c>
       <c r="R21">
-        <v>1.09747443026</v>
+        <v>58.39417553801601</v>
       </c>
       <c r="S21">
-        <v>0.001196253460242684</v>
+        <v>0.03405167060848693</v>
       </c>
       <c r="T21">
-        <v>0.001342804887862253</v>
+        <v>0.02454590685497043</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.16662466666667</v>
+        <v>3.9801995</v>
       </c>
       <c r="H22">
-        <v>33.499874</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I22">
-        <v>0.3192931992408685</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J22">
-        <v>0.344426580689792</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>2.445194666666667</v>
+        <v>0.055189</v>
       </c>
       <c r="N22">
-        <v>7.335584</v>
+        <v>0.165567</v>
       </c>
       <c r="O22">
-        <v>0.8389131387469019</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P22">
-        <v>0.872970787141563</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q22">
-        <v>27.30457107960178</v>
+        <v>0.2196632302055</v>
       </c>
       <c r="R22">
-        <v>245.741139716416</v>
+        <v>1.317979381233</v>
       </c>
       <c r="S22">
-        <v>0.2678592599556969</v>
+        <v>0.0007685595240454413</v>
       </c>
       <c r="T22">
-        <v>0.3006743432572447</v>
+        <v>0.0005540107182000629</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.16662466666667</v>
+        <v>3.9801995</v>
       </c>
       <c r="H23">
-        <v>33.499874</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I23">
-        <v>0.3192931992408685</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J23">
-        <v>0.344426580689792</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,33 +1863,33 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.34114</v>
+        <v>0.317703</v>
       </c>
       <c r="N23">
-        <v>0.68228</v>
+        <v>0.635406</v>
       </c>
       <c r="O23">
-        <v>0.117040508902407</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P23">
-        <v>0.08119469542587825</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q23">
-        <v>3.809382338786666</v>
+        <v>1.2645213217485</v>
       </c>
       <c r="R23">
-        <v>22.85629403272</v>
+        <v>5.058085286994</v>
       </c>
       <c r="S23">
-        <v>0.03737023852822888</v>
+        <v>0.004424317644237237</v>
       </c>
       <c r="T23">
-        <v>0.02796561131568434</v>
+        <v>0.002126158802228881</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.16662466666667</v>
+        <v>3.9801995</v>
       </c>
       <c r="H24">
-        <v>33.499874</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I24">
-        <v>0.3192931992408685</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J24">
-        <v>0.344426580689792</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05058633333333334</v>
+        <v>0.311266</v>
       </c>
       <c r="N24">
-        <v>0.151759</v>
+        <v>0.933798</v>
       </c>
       <c r="O24">
-        <v>0.0173554851288038</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P24">
-        <v>0.01806007179330459</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q24">
-        <v>0.5648785975962222</v>
+        <v>1.238900777567</v>
       </c>
       <c r="R24">
-        <v>5.083907378366</v>
+        <v>7.433404665402001</v>
       </c>
       <c r="S24">
-        <v>0.005541488371153082</v>
+        <v>0.004334676272654485</v>
       </c>
       <c r="T24">
-        <v>0.006220368774780061</v>
+        <v>0.003124620852185413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.16662466666667</v>
+        <v>3.9801995</v>
       </c>
       <c r="H25">
-        <v>33.499874</v>
+        <v>7.960399000000001</v>
       </c>
       <c r="I25">
-        <v>0.3192931992408685</v>
+        <v>0.04555933004334003</v>
       </c>
       <c r="J25">
-        <v>0.344426580689792</v>
+        <v>0.0313912002075785</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,772 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.07779633333333333</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N25">
-        <v>0.233389</v>
+        <v>0.079739</v>
       </c>
       <c r="O25">
-        <v>0.02669086722188727</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P25">
-        <v>0.02777444563925411</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q25">
-        <v>0.8687224547762221</v>
+        <v>0.1057923759768333</v>
       </c>
       <c r="R25">
-        <v>7.818502092985999</v>
+        <v>0.6347542558610001</v>
       </c>
       <c r="S25">
-        <v>0.008522212385789617</v>
+        <v>0.0003701472388088173</v>
       </c>
       <c r="T25">
-        <v>0.009566257342082798</v>
+        <v>0.0002668180293087077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H26">
+        <v>155.222419</v>
+      </c>
+      <c r="I26">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J26">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1156085</v>
+      </c>
+      <c r="N26">
+        <v>0.231217</v>
+      </c>
+      <c r="O26">
+        <v>0.03533763015337574</v>
+      </c>
+      <c r="P26">
+        <v>0.02464655526290515</v>
+      </c>
+      <c r="Q26">
+        <v>5.981677008987167</v>
+      </c>
+      <c r="R26">
+        <v>35.890062053923</v>
+      </c>
+      <c r="S26">
+        <v>0.02092874092181873</v>
+      </c>
+      <c r="T26">
+        <v>0.01508633544489691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H27">
+        <v>155.222419</v>
+      </c>
+      <c r="I27">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J27">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N27">
+        <v>7.335584</v>
+      </c>
+      <c r="O27">
+        <v>0.7474137696075424</v>
+      </c>
+      <c r="P27">
+        <v>0.7819359149270289</v>
+      </c>
+      <c r="Q27">
+        <v>126.5163436952996</v>
+      </c>
+      <c r="R27">
+        <v>1138.647093257696</v>
+      </c>
+      <c r="S27">
+        <v>0.4426564282217967</v>
+      </c>
+      <c r="T27">
+        <v>0.4786286514755345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H28">
+        <v>155.222419</v>
+      </c>
+      <c r="I28">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J28">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.055189</v>
+      </c>
+      <c r="N28">
+        <v>0.165567</v>
+      </c>
+      <c r="O28">
+        <v>0.01686942111120423</v>
+      </c>
+      <c r="P28">
+        <v>0.01764859943349069</v>
+      </c>
+      <c r="Q28">
+        <v>2.855523360730333</v>
+      </c>
+      <c r="R28">
+        <v>25.699710246573</v>
+      </c>
+      <c r="S28">
+        <v>0.00999092871834038</v>
+      </c>
+      <c r="T28">
+        <v>0.01080283586676259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H29">
+        <v>155.222419</v>
+      </c>
+      <c r="I29">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J29">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.317703</v>
+      </c>
+      <c r="N29">
+        <v>0.635406</v>
+      </c>
+      <c r="O29">
+        <v>0.0971111216962242</v>
+      </c>
+      <c r="P29">
+        <v>0.06773104526648781</v>
+      </c>
+      <c r="Q29">
+        <v>16.438209394519</v>
+      </c>
+      <c r="R29">
+        <v>98.62925636711401</v>
+      </c>
+      <c r="S29">
+        <v>0.05751414279300032</v>
+      </c>
+      <c r="T29">
+        <v>0.0414586646297641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H30">
+        <v>155.222419</v>
+      </c>
+      <c r="I30">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J30">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.311266</v>
+      </c>
+      <c r="N30">
+        <v>0.933798</v>
+      </c>
+      <c r="O30">
+        <v>0.09514354729384651</v>
+      </c>
+      <c r="P30">
+        <v>0.09953811359627668</v>
+      </c>
+      <c r="Q30">
+        <v>16.10515382415133</v>
+      </c>
+      <c r="R30">
+        <v>144.946384417362</v>
+      </c>
+      <c r="S30">
+        <v>0.05634884521268617</v>
+      </c>
+      <c r="T30">
+        <v>0.06092800211824323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>51.74080633333333</v>
+      </c>
+      <c r="H31">
+        <v>155.222419</v>
+      </c>
+      <c r="I31">
+        <v>0.5922508337707373</v>
+      </c>
+      <c r="J31">
+        <v>0.6121072613990376</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.079739</v>
+      </c>
+      <c r="O31">
+        <v>0.008124510137807135</v>
+      </c>
+      <c r="P31">
+        <v>0.00849977151381081</v>
+      </c>
+      <c r="Q31">
+        <v>1.375253385404556</v>
+      </c>
+      <c r="R31">
+        <v>12.377280468641</v>
+      </c>
+      <c r="S31">
+        <v>0.004811747903095084</v>
+      </c>
+      <c r="T31">
+        <v>0.005202771863836286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H32">
+        <v>34.26097</v>
+      </c>
+      <c r="I32">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J32">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1156085</v>
+      </c>
+      <c r="N32">
+        <v>0.231217</v>
+      </c>
+      <c r="O32">
+        <v>0.03533763015337574</v>
+      </c>
+      <c r="P32">
+        <v>0.02464655526290515</v>
+      </c>
+      <c r="Q32">
+        <v>1.320286450081667</v>
+      </c>
+      <c r="R32">
+        <v>7.92171870049</v>
+      </c>
+      <c r="S32">
+        <v>0.004619429135814485</v>
+      </c>
+      <c r="T32">
+        <v>0.003329882947433964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H33">
+        <v>34.26097</v>
+      </c>
+      <c r="I33">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J33">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N33">
+        <v>7.335584</v>
+      </c>
+      <c r="O33">
+        <v>0.7474137696075424</v>
+      </c>
+      <c r="P33">
+        <v>0.7819359149270289</v>
+      </c>
+      <c r="Q33">
+        <v>27.92491370627556</v>
+      </c>
+      <c r="R33">
+        <v>251.32422335648</v>
+      </c>
+      <c r="S33">
+        <v>0.09770391870786481</v>
+      </c>
+      <c r="T33">
+        <v>0.1056437721753566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H34">
+        <v>34.26097</v>
+      </c>
+      <c r="I34">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J34">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.055189</v>
+      </c>
+      <c r="N34">
+        <v>0.165567</v>
+      </c>
+      <c r="O34">
+        <v>0.01686942111120423</v>
+      </c>
+      <c r="P34">
+        <v>0.01764859943349069</v>
+      </c>
+      <c r="Q34">
+        <v>0.6302762244433333</v>
+      </c>
+      <c r="R34">
+        <v>5.67248601999</v>
+      </c>
+      <c r="S34">
+        <v>0.002205215659544632</v>
+      </c>
+      <c r="T34">
+        <v>0.00238442125776997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H35">
+        <v>34.26097</v>
+      </c>
+      <c r="I35">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J35">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.317703</v>
+      </c>
+      <c r="N35">
+        <v>0.635406</v>
+      </c>
+      <c r="O35">
+        <v>0.0971111216962242</v>
+      </c>
+      <c r="P35">
+        <v>0.06773104526648781</v>
+      </c>
+      <c r="Q35">
+        <v>3.62827098397</v>
+      </c>
+      <c r="R35">
+        <v>21.76962590382</v>
+      </c>
+      <c r="S35">
+        <v>0.01269462448466739</v>
+      </c>
+      <c r="T35">
+        <v>0.009150830622736326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H36">
+        <v>34.26097</v>
+      </c>
+      <c r="I36">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J36">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.311266</v>
+      </c>
+      <c r="N36">
+        <v>0.933798</v>
+      </c>
+      <c r="O36">
+        <v>0.09514354729384651</v>
+      </c>
+      <c r="P36">
+        <v>0.09953811359627668</v>
+      </c>
+      <c r="Q36">
+        <v>3.554758362673333</v>
+      </c>
+      <c r="R36">
+        <v>31.99282526406</v>
+      </c>
+      <c r="S36">
+        <v>0.01243741791813259</v>
+      </c>
+      <c r="T36">
+        <v>0.0134481376220085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>11.42032333333333</v>
+      </c>
+      <c r="H37">
+        <v>34.26097</v>
+      </c>
+      <c r="I37">
+        <v>0.1307226635109598</v>
+      </c>
+      <c r="J37">
+        <v>0.1351054097383612</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.079739</v>
+      </c>
+      <c r="O37">
+        <v>0.008124510137807135</v>
+      </c>
+      <c r="P37">
+        <v>0.00849977151381081</v>
+      </c>
+      <c r="Q37">
+        <v>0.3035483874255556</v>
+      </c>
+      <c r="R37">
+        <v>2.73193548683</v>
+      </c>
+      <c r="S37">
+        <v>0.001062057604935944</v>
+      </c>
+      <c r="T37">
+        <v>0.00114836511305586</v>
       </c>
     </row>
   </sheetData>
